--- a/data/country_names_toCheck.xlsx
+++ b/data/country_names_toCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroeder\OneDrive - Hertie School\WZB\TRIAS-GP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B24A5BC-D43B-47C2-9DE8-819B047FD0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9032606E-149D-4CF6-B1D2-B703B15D37FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="regex" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">regex!$A$1:$J$821</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">regex!$A$1:$K$821</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5701" uniqueCount="2627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="2687">
   <si>
     <t>1</t>
   </si>
@@ -7607,9 +7607,6 @@
     <t>baham*</t>
   </si>
   <si>
-    <t>(commonwealth( of)?) dominica</t>
-  </si>
-  <si>
     <t>order, monastery</t>
   </si>
   <si>
@@ -7802,9 +7799,6 @@
     <t>congo[ \\(-]+(kinshasa|dem)</t>
   </si>
   <si>
-    <t>guinea[a-z\-](?&lt;![ -]?bissau)</t>
-  </si>
-  <si>
     <t>(?&lt;!us )virgin islands</t>
   </si>
   <si>
@@ -7829,36 +7823,15 @@
     <t>(?&lt;!south )sudan</t>
   </si>
   <si>
-    <t>dominica(?!n rep)</t>
-  </si>
-  <si>
-    <t>(?&lt;!commonwealth )dominican (?!order|monastery)</t>
-  </si>
-  <si>
-    <t>(mexico)(?! city)</t>
-  </si>
-  <si>
-    <t>(panama)(?! city| canal| paper)</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>india(?!n tribes|n ocean|na)</t>
-  </si>
-  <si>
     <t>jordan(?! river)</t>
   </si>
   <si>
     <t>turkey(?!s)</t>
   </si>
   <si>
-    <t>exclude most animals</t>
-  </si>
-  <si>
-    <t>turks\\b(?! and c)</t>
-  </si>
-  <si>
     <t>(?-i)Poles?\\b"</t>
   </si>
   <si>
@@ -7874,9 +7847,6 @@
     <t>vatican|holy see</t>
   </si>
   <si>
-    <t>(saint|st)(-| |\\. )barth[eé]lemy</t>
-  </si>
-  <si>
     <t>(saint|st)(-| |\\. )lucia</t>
   </si>
   <si>
@@ -7889,9 +7859,6 @@
     <t>(saint|st)(-| |\\. )helen</t>
   </si>
   <si>
-    <t>(?&lt;!dr |democratic republic )congo(?&lt;! basin| kinshasa)</t>
-  </si>
-  <si>
     <t>(?&lt;!(latin[- ]|south[- ]|north[- ]|meso[- ]|middle[- ]|pan[- ]|central[- ]))america(?!s|n samoa)</t>
   </si>
   <si>
@@ -7905,6 +7872,219 @@
   </si>
   <si>
     <t>(?-i)(?&lt;!\\$)\\bU\\.?S\\.?\\b(?!\\.? [Vv]irgin| ?\\$)(?i)</t>
+  </si>
+  <si>
+    <t>regex_full</t>
+  </si>
+  <si>
+    <t>congo[ \\(-]+(kinshasa|democratic republic)</t>
+  </si>
+  <si>
+    <t>congo[ \\(-]+(brazzaville|republic)</t>
+  </si>
+  <si>
+    <t>(?&lt;!dr |democratic republic |democratic republic of |democratic republic of the )congo(?![- ]basin|[-\\( ]+kinshasa)\\w*</t>
+  </si>
+  <si>
+    <t>(?&lt;!dr |democratic republic |democratic republic of |democratic republic of the )congo(?![-\\ ]basin|[-\\( ]+kinshasa)</t>
+  </si>
+  <si>
+    <t>(?&lt;!lake) chad\\w*</t>
+  </si>
+  <si>
+    <t>(?&lt;!south )sudan\\w*</t>
+  </si>
+  <si>
+    <t>guinea[ -]bissau\\w*</t>
+  </si>
+  <si>
+    <t>guinea(?![ -]?bissau)</t>
+  </si>
+  <si>
+    <t>guinea(?![ -]?bissau)\\w*</t>
+  </si>
+  <si>
+    <t>(saint|st)(-| |\\. )helen\\w*</t>
+  </si>
+  <si>
+    <t>(saint|st)(-| |\\. )barth[eé]lem</t>
+  </si>
+  <si>
+    <t>(saint|st)(-| |\\. )barth[eé]lem\\w*</t>
+  </si>
+  <si>
+    <t>dominica(?!n rep|n order|n monastery)</t>
+  </si>
+  <si>
+    <t>(commonwealth (of )?)?dominica(?!n rep|n order|n monastery)\\w*</t>
+  </si>
+  <si>
+    <t>(saint|st)(-| |\\. )lucia\\w*</t>
+  </si>
+  <si>
+    <t>(saint|st)(-| |\\. )martin\\w*</t>
+  </si>
+  <si>
+    <t>(sint|st)(-| |\\. )maarten\\w*</t>
+  </si>
+  <si>
+    <t>(saint|st)?(-| |\\. )?kitts( and |[ &amp;\\/)]*)nevis</t>
+  </si>
+  <si>
+    <t>(saint|st)?(-| |\\. )?vincent( and |[ &amp;\\/]*)(the )?grenadines</t>
+  </si>
+  <si>
+    <t>brasil(?!ia\\b)</t>
+  </si>
+  <si>
+    <t>brasil(?!ia\\b)\\w*</t>
+  </si>
+  <si>
+    <t>(saint|st)?(-| |\\. )?pierre( and |et |[ &amp;\\/]*)miquelon</t>
+  </si>
+  <si>
+    <t>(saint|st)(-| |\\. )pierr(e|ais)</t>
+  </si>
+  <si>
+    <t>(?&lt;!(latin[- ]|south[- ]|north[- ]|meso[- ]|middle[- ]|pan[- ]|central[- ]))america(?!s|n samoa)\\w*</t>
+  </si>
+  <si>
+    <t>hong ?kong\\w*</t>
+  </si>
+  <si>
+    <t>(?&lt;!inner )mongolia\\w*</t>
+  </si>
+  <si>
+    <t>(?&lt;!north )korea\\w*</t>
+  </si>
+  <si>
+    <t>maca[ou]\\w*</t>
+  </si>
+  <si>
+    <t>india(?!n tribes|n ocean|na|n american)</t>
+  </si>
+  <si>
+    <t>\\w*india(?!n tribes|n ocean|na|n american)\\w*</t>
+  </si>
+  <si>
+    <t>(ph|f)ilip+in\\w*</t>
+  </si>
+  <si>
+    <t>\\bthai\\w*</t>
+  </si>
+  <si>
+    <t>(?&lt;!west )\\btimor\\w*</t>
+  </si>
+  <si>
+    <t>viet ?nam\\w*</t>
+  </si>
+  <si>
+    <t>united arab emirat</t>
+  </si>
+  <si>
+    <t>\\bazer\\w*</t>
+  </si>
+  <si>
+    <t>jordan(?! river)\\w*</t>
+  </si>
+  <si>
+    <t>exclude most of the animals</t>
+  </si>
+  <si>
+    <t>turks\\b(?!( and |[ &amp;\\/)]*)c)</t>
+  </si>
+  <si>
+    <t>trinidad( and |[ &amp;\\/)]*)tobago</t>
+  </si>
+  <si>
+    <t>turks( and |[ &amp;\\/)]*)cai[cr]os(islands)?</t>
+  </si>
+  <si>
+    <t>antigua( and |[ &amp;\\/)]*)barbuda</t>
+  </si>
+  <si>
+    <t>s[ãa]o tom[eé]( and |[ &amp;\\/)]*)pr[ií]ncipe</t>
+  </si>
+  <si>
+    <t>so[wv][ji]et\\w*( union)?</t>
+  </si>
+  <si>
+    <t>czech\\w*( republic)?</t>
+  </si>
+  <si>
+    <t>saudi\\w*( arab)?\\w*</t>
+  </si>
+  <si>
+    <t>faeroe\\w*( island)?\\w*</t>
+  </si>
+  <si>
+    <t>(great ?|\\b)brit(?!anny|t)\\w*</t>
+  </si>
+  <si>
+    <t>gree[kc]\\w*</t>
+  </si>
+  <si>
+    <t>\\bital\\w*</t>
+  </si>
+  <si>
+    <t>bosnia( and |[ &amp;\\/)]*)herzegovina</t>
+  </si>
+  <si>
+    <t>(?&lt;!order of )malt\\w*</t>
+  </si>
+  <si>
+    <t>\\bgerman\\w*</t>
+  </si>
+  <si>
+    <t>pitcairn\\w*( island)?\\w*</t>
+  </si>
+  <si>
+    <t>northern mariana\\s*( island)?\\w*</t>
+  </si>
+  <si>
+    <t>wallis( and |[ &amp;\\/)]*)futuna( island\\w*)?</t>
+  </si>
+  <si>
+    <t>(?&lt;!commonwealth )dominican(?! order| monastery)</t>
+  </si>
+  <si>
+    <t>(?&lt;!commonwealth )dominican (?! order| monastery)</t>
+  </si>
+  <si>
+    <t>mexico(?! city)</t>
+  </si>
+  <si>
+    <t>mexico(?! city)\\w*</t>
+  </si>
+  <si>
+    <t>panama(?! city| canal| paper)\\w*</t>
+  </si>
+  <si>
+    <t>panama(?! city| canal| paper)</t>
+  </si>
+  <si>
+    <t>falkland\\w*( island\\w*)?</t>
+  </si>
+  <si>
+    <t>french guian</t>
+  </si>
+  <si>
+    <t>french(?! guian| polynes)\\w*</t>
+  </si>
+  <si>
+    <t>french(?! guian| polynes)</t>
+  </si>
+  <si>
+    <t>(?&lt;!american )samoa\\w*</t>
+  </si>
+  <si>
+    <t>t[üu]rkiye</t>
+  </si>
+  <si>
+    <t>\\bomani</t>
+  </si>
+  <si>
+    <t>\\bomani\\w*</t>
   </si>
 </sst>
 </file>
@@ -7949,10 +8129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11216,7 +11397,7 @@
         <v>2456</v>
       </c>
       <c r="F235" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -18373,20 +18554,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29149CAA-188B-4ED7-9132-517B1CA74B6F}">
-  <dimension ref="A1:J821"/>
+  <dimension ref="A1:K821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C378" sqref="C378"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I546" sqref="I546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2463</v>
       </c>
@@ -18412,10 +18594,13 @@
         <v>2505</v>
       </c>
       <c r="J1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="K1" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18429,7 +18614,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18437,7 +18622,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18448,7 +18633,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18462,7 +18647,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18470,7 +18655,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18484,7 +18669,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18492,7 +18677,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18503,7 +18688,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18517,7 +18702,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -18525,7 +18710,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -18536,7 +18721,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -18550,7 +18735,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -18558,7 +18743,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -18569,7 +18754,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -19204,7 +19389,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -19215,7 +19400,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -19228,8 +19413,11 @@
       <c r="I66" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -19243,7 +19431,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -19263,7 +19451,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -19274,7 +19462,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -19291,7 +19479,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -19305,10 +19493,13 @@
         <v>2454</v>
       </c>
       <c r="I71" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2590</v>
+      </c>
+      <c r="J71" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -19322,7 +19513,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -19336,10 +19527,13 @@
         <v>2455</v>
       </c>
       <c r="I73" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2588</v>
+      </c>
+      <c r="J73" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -19353,7 +19547,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -19370,7 +19564,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -19387,10 +19581,13 @@
         <v>2468</v>
       </c>
       <c r="I76" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2620</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -19401,10 +19598,13 @@
         <v>2516</v>
       </c>
       <c r="I77" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2589</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -19421,7 +19621,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -19432,7 +19632,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -19446,7 +19646,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -19457,7 +19657,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -19468,7 +19668,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -19479,7 +19679,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -19493,7 +19693,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -19504,7 +19704,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -19515,7 +19715,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -19529,7 +19729,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -19540,7 +19740,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -19554,7 +19754,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -19565,7 +19765,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -19576,7 +19776,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -19587,7 +19787,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -19600,8 +19800,11 @@
       <c r="I93" t="s">
         <v>2519</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -19612,10 +19815,13 @@
         <v>1727</v>
       </c>
       <c r="I94" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2597</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -19629,7 +19835,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -19640,7 +19846,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -19654,7 +19860,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -19665,7 +19871,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -19676,7 +19882,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -19690,7 +19896,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -19701,7 +19907,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -19712,7 +19918,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -19726,7 +19932,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -19737,7 +19943,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -19748,7 +19954,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -19762,7 +19968,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -19773,7 +19979,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -19784,7 +19990,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -19798,7 +20004,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -19809,7 +20015,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -19820,7 +20026,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -19834,7 +20040,10 @@
         <v>2456</v>
       </c>
       <c r="I112" t="s">
-        <v>2600</v>
+        <v>2598</v>
+      </c>
+      <c r="J112" t="s">
+        <v>2622</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -20228,7 +20437,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -20239,7 +20448,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -20253,7 +20462,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -20264,7 +20473,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -20284,7 +20493,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -20295,7 +20504,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -20309,7 +20518,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -20323,10 +20532,13 @@
         <v>2471</v>
       </c>
       <c r="I151" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2586</v>
+      </c>
+      <c r="J151" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -20340,7 +20552,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -20354,7 +20566,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -20365,7 +20577,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -20376,7 +20588,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -20390,7 +20602,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -20401,7 +20613,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -20409,7 +20621,7 @@
         <v>973</v>
       </c>
       <c r="C158" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D158" t="s">
         <v>2454</v>
@@ -20418,7 +20630,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -20432,7 +20644,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -20443,7 +20655,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -20454,7 +20666,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -20468,7 +20680,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -20479,7 +20691,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -20490,7 +20702,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -20507,10 +20719,13 @@
         <v>2472</v>
       </c>
       <c r="I165" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2624</v>
+      </c>
+      <c r="J165" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -20527,7 +20742,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -20538,7 +20753,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -20551,8 +20766,11 @@
       <c r="I168" t="s">
         <v>2522</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -20563,7 +20781,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -20580,7 +20798,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -20594,7 +20812,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -20605,7 +20823,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -20616,7 +20834,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -20630,7 +20848,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -20644,7 +20862,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -20655,7 +20873,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -20669,7 +20887,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -20680,7 +20898,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -20691,7 +20909,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -20705,7 +20923,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -20719,7 +20937,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -20730,7 +20948,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -20744,7 +20962,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -20755,7 +20973,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -20766,7 +20984,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -20777,7 +20995,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -20788,10 +21006,13 @@
         <v>1820</v>
       </c>
       <c r="I187" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2610</v>
+      </c>
+      <c r="J187" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -20805,7 +21026,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -20816,7 +21037,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -20830,7 +21051,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -20841,7 +21062,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -20855,7 +21076,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -20866,7 +21087,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -20877,7 +21098,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -20891,7 +21112,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -20902,7 +21123,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -20913,7 +21134,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -20927,7 +21148,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -20938,7 +21159,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -20949,7 +21170,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -20960,7 +21181,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -20970,8 +21191,14 @@
       <c r="C202" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" t="s">
+        <v>2658</v>
+      </c>
+      <c r="J202" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -20985,7 +21212,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -20999,7 +21226,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -21013,7 +21240,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -21024,7 +21251,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -21035,7 +21262,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -21049,7 +21276,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -21060,7 +21287,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -21071,7 +21298,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -21085,7 +21312,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -21096,7 +21323,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -21107,7 +21334,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -21118,10 +21345,13 @@
         <v>1847</v>
       </c>
       <c r="I214" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2627</v>
+      </c>
+      <c r="J214" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -21132,7 +21362,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -21143,7 +21373,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -21157,7 +21387,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -21171,7 +21401,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -21182,7 +21412,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -21196,7 +21426,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -21207,7 +21437,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -21218,7 +21448,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -21232,7 +21462,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -21243,7 +21473,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -21254,7 +21484,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -21268,7 +21498,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -21279,7 +21509,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -21290,7 +21520,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -21304,7 +21534,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -21315,7 +21545,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -21326,7 +21556,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -21339,11 +21569,8 @@
       <c r="E232" t="s">
         <v>2455</v>
       </c>
-      <c r="I232" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -21357,10 +21584,13 @@
         <v>2455</v>
       </c>
       <c r="I233" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2629</v>
+      </c>
+      <c r="J233" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -21371,7 +21601,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -21385,7 +21615,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -21399,13 +21629,16 @@
         <v>2456</v>
       </c>
       <c r="F236" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="I236" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2673</v>
+      </c>
+      <c r="J236" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -21416,7 +21649,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -21430,7 +21663,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -21444,7 +21677,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -21455,7 +21688,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -21469,7 +21702,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -21483,7 +21716,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -21494,7 +21727,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -21505,7 +21738,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -21519,7 +21752,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -21530,7 +21763,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -21541,7 +21774,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -21552,7 +21785,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -21566,7 +21799,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -21577,7 +21810,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -21588,7 +21821,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -21598,8 +21831,14 @@
       <c r="C252" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>2634</v>
+      </c>
+      <c r="J252" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -21607,7 +21846,7 @@
         <v>1068</v>
       </c>
       <c r="C253" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="F253" t="s">
         <v>2474</v>
@@ -21616,7 +21855,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -21630,7 +21869,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -21638,13 +21877,13 @@
         <v>1070</v>
       </c>
       <c r="C255" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="H255" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -21655,7 +21894,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -21666,7 +21905,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>255</v>
       </c>
@@ -21677,7 +21916,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>256</v>
       </c>
@@ -21685,13 +21924,13 @@
         <v>1074</v>
       </c>
       <c r="C259" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="H259" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>257</v>
       </c>
@@ -21702,10 +21941,13 @@
         <v>1893</v>
       </c>
       <c r="I260" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2607</v>
+      </c>
+      <c r="J260" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>258</v>
       </c>
@@ -21719,7 +21961,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -21730,7 +21972,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>260</v>
       </c>
@@ -21744,7 +21986,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>261</v>
       </c>
@@ -21755,7 +21997,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>262</v>
       </c>
@@ -21766,10 +22008,13 @@
         <v>1898</v>
       </c>
       <c r="I265" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2608</v>
+      </c>
+      <c r="J265" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>263</v>
       </c>
@@ -21780,7 +22025,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>264</v>
       </c>
@@ -21791,7 +22036,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>265</v>
       </c>
@@ -21802,7 +22047,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>266</v>
       </c>
@@ -21813,7 +22058,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>267</v>
       </c>
@@ -21827,7 +22072,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>268</v>
       </c>
@@ -21841,7 +22086,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>269</v>
       </c>
@@ -21855,7 +22100,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>270</v>
       </c>
@@ -21866,7 +22111,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>271</v>
       </c>
@@ -21877,7 +22122,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>272</v>
       </c>
@@ -21885,13 +22130,13 @@
         <v>1090</v>
       </c>
       <c r="C275" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="H275" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>273</v>
       </c>
@@ -21902,7 +22147,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>274</v>
       </c>
@@ -21913,7 +22158,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>275</v>
       </c>
@@ -21924,10 +22169,13 @@
         <v>1911</v>
       </c>
       <c r="I278" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2609</v>
+      </c>
+      <c r="J278" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>276</v>
       </c>
@@ -21941,7 +22189,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>277</v>
       </c>
@@ -21952,7 +22200,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>278</v>
       </c>
@@ -21963,7 +22211,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>279</v>
       </c>
@@ -21974,7 +22222,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>280</v>
       </c>
@@ -21987,8 +22235,14 @@
       <c r="F283" t="s">
         <v>2475</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I283" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J283" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>281</v>
       </c>
@@ -21996,16 +22250,19 @@
         <v>1099</v>
       </c>
       <c r="C284" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="I284" t="s">
+        <v>2555</v>
+      </c>
+      <c r="J284" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K284" t="s">
         <v>2556</v>
       </c>
-      <c r="J284" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>282</v>
       </c>
@@ -22016,7 +22273,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>283</v>
       </c>
@@ -22026,8 +22283,14 @@
       <c r="C286" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I286" t="s">
+        <v>2656</v>
+      </c>
+      <c r="J286" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>284</v>
       </c>
@@ -22041,7 +22304,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>285</v>
       </c>
@@ -22052,7 +22315,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>286</v>
       </c>
@@ -22060,13 +22323,13 @@
         <v>1104</v>
       </c>
       <c r="C289" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="H289" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>287</v>
       </c>
@@ -22077,7 +22340,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>288</v>
       </c>
@@ -22088,7 +22351,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>289</v>
       </c>
@@ -22101,8 +22364,14 @@
       <c r="F292" t="s">
         <v>2494</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I292" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J292" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>290</v>
       </c>
@@ -22110,7 +22379,7 @@
         <v>1108</v>
       </c>
       <c r="C293" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="F293" t="s">
         <v>2474</v>
@@ -22119,7 +22388,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>291</v>
       </c>
@@ -22136,7 +22405,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>292</v>
       </c>
@@ -22147,7 +22416,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>293</v>
       </c>
@@ -22158,7 +22427,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>294</v>
       </c>
@@ -22172,10 +22441,13 @@
         <v>2456</v>
       </c>
       <c r="I297" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2591</v>
+      </c>
+      <c r="J297" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>295</v>
       </c>
@@ -22186,7 +22458,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>296</v>
       </c>
@@ -22197,7 +22469,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>297</v>
       </c>
@@ -22208,7 +22480,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>298</v>
       </c>
@@ -22218,8 +22490,11 @@
       <c r="C301" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H301" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>299</v>
       </c>
@@ -22233,7 +22508,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>300</v>
       </c>
@@ -22244,7 +22519,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>301</v>
       </c>
@@ -22258,7 +22533,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>302</v>
       </c>
@@ -22269,7 +22544,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>303</v>
       </c>
@@ -22280,7 +22555,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>304</v>
       </c>
@@ -22294,7 +22569,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>305</v>
       </c>
@@ -22305,7 +22580,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>306</v>
       </c>
@@ -22316,7 +22591,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>307</v>
       </c>
@@ -22327,7 +22602,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>308</v>
       </c>
@@ -22341,7 +22616,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>309</v>
       </c>
@@ -22352,7 +22627,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>310</v>
       </c>
@@ -22363,7 +22638,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>311</v>
       </c>
@@ -22377,7 +22652,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>312</v>
       </c>
@@ -22388,7 +22663,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>313</v>
       </c>
@@ -22399,7 +22674,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>314</v>
       </c>
@@ -22410,10 +22685,13 @@
         <v>1950</v>
       </c>
       <c r="I317" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2675</v>
+      </c>
+      <c r="J317" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>315</v>
       </c>
@@ -22424,7 +22702,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>316</v>
       </c>
@@ -22435,7 +22713,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>317</v>
       </c>
@@ -22449,7 +22727,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>318</v>
       </c>
@@ -22460,7 +22738,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>319</v>
       </c>
@@ -22471,7 +22749,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>320</v>
       </c>
@@ -22485,10 +22763,13 @@
         <v>2454</v>
       </c>
       <c r="I323" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2678</v>
+      </c>
+      <c r="J323" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>321</v>
       </c>
@@ -22499,7 +22780,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>322</v>
       </c>
@@ -22510,7 +22791,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>323</v>
       </c>
@@ -22524,7 +22805,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>324</v>
       </c>
@@ -22538,7 +22819,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>325</v>
       </c>
@@ -22549,7 +22830,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>326</v>
       </c>
@@ -22560,7 +22841,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>327</v>
       </c>
@@ -22568,13 +22849,13 @@
         <v>1145</v>
       </c>
       <c r="C330" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="H330" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>328</v>
       </c>
@@ -22585,7 +22866,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>329</v>
       </c>
@@ -22596,7 +22877,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>330</v>
       </c>
@@ -22610,7 +22891,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>331</v>
       </c>
@@ -22621,7 +22902,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>332</v>
       </c>
@@ -22632,7 +22913,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>333</v>
       </c>
@@ -22643,7 +22924,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>334</v>
       </c>
@@ -22663,7 +22944,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>335</v>
       </c>
@@ -22674,7 +22955,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>336</v>
       </c>
@@ -22687,11 +22968,14 @@
       <c r="D339" t="s">
         <v>2454</v>
       </c>
-      <c r="G339" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I339" t="s">
+        <v>2636</v>
+      </c>
+      <c r="J339" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>337</v>
       </c>
@@ -22702,7 +22986,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>338</v>
       </c>
@@ -22713,7 +22997,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>339</v>
       </c>
@@ -22727,7 +23011,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>340</v>
       </c>
@@ -22738,7 +23022,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>341</v>
       </c>
@@ -22749,7 +23033,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>342</v>
       </c>
@@ -22763,7 +23047,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>343</v>
       </c>
@@ -22774,7 +23058,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>344</v>
       </c>
@@ -22785,7 +23069,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>345</v>
       </c>
@@ -22799,7 +23083,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>346</v>
       </c>
@@ -22810,7 +23094,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>347</v>
       </c>
@@ -22821,7 +23105,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>348</v>
       </c>
@@ -22831,8 +23115,11 @@
       <c r="C351" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J351" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>349</v>
       </c>
@@ -22840,10 +23127,7 @@
         <v>1167</v>
       </c>
       <c r="C352" t="s">
-        <v>2536</v>
-      </c>
-      <c r="H352" t="s">
-        <v>2454</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -22854,7 +23138,7 @@
         <v>1168</v>
       </c>
       <c r="C353" t="s">
-        <v>1986</v>
+        <v>2680</v>
       </c>
       <c r="H353" t="s">
         <v>2454</v>
@@ -22890,7 +23174,7 @@
         <v>1171</v>
       </c>
       <c r="C356" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="H356" t="s">
         <v>2454</v>
@@ -23043,7 +23327,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>366</v>
       </c>
@@ -23057,7 +23341,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>367</v>
       </c>
@@ -23068,7 +23352,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>368</v>
       </c>
@@ -23079,7 +23363,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>369</v>
       </c>
@@ -23093,7 +23377,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>370</v>
       </c>
@@ -23104,7 +23388,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>371</v>
       </c>
@@ -23115,7 +23399,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>372</v>
       </c>
@@ -23123,13 +23407,13 @@
         <v>1190</v>
       </c>
       <c r="C375" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="H375" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>373</v>
       </c>
@@ -23140,7 +23424,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>374</v>
       </c>
@@ -23151,7 +23435,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>375</v>
       </c>
@@ -23162,7 +23446,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>376</v>
       </c>
@@ -23176,7 +23460,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>377</v>
       </c>
@@ -23196,7 +23480,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>378</v>
       </c>
@@ -23207,7 +23491,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>379</v>
       </c>
@@ -23218,7 +23502,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>380</v>
       </c>
@@ -23229,10 +23513,16 @@
         <v>2016</v>
       </c>
       <c r="E383" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2582</v>
+      </c>
+      <c r="I383" t="s">
+        <v>2638</v>
+      </c>
+      <c r="J383" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>381</v>
       </c>
@@ -23242,8 +23532,14 @@
       <c r="C384" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I384" t="s">
+        <v>2639</v>
+      </c>
+      <c r="J384" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>382</v>
       </c>
@@ -23251,13 +23547,13 @@
         <v>1200</v>
       </c>
       <c r="C385" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="H385" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>383</v>
       </c>
@@ -23268,7 +23564,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>384</v>
       </c>
@@ -23282,7 +23578,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>385</v>
       </c>
@@ -23299,13 +23595,16 @@
         <v>2491</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>2626</v>
-      </c>
-      <c r="J388" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2615</v>
+      </c>
+      <c r="J388" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="K388" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>386</v>
       </c>
@@ -23319,10 +23618,13 @@
         <v>2456</v>
       </c>
       <c r="I389" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2611</v>
+      </c>
+      <c r="J389" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>387</v>
       </c>
@@ -23330,16 +23632,19 @@
         <v>1205</v>
       </c>
       <c r="C390" t="s">
-        <v>2605</v>
+        <v>2599</v>
       </c>
       <c r="D390" t="s">
         <v>2454</v>
       </c>
       <c r="I390" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2613</v>
+      </c>
+      <c r="J390" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>387</v>
       </c>
@@ -23350,7 +23655,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>388</v>
       </c>
@@ -23361,7 +23666,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>389</v>
       </c>
@@ -23375,7 +23680,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>390</v>
       </c>
@@ -23386,7 +23691,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>391</v>
       </c>
@@ -23397,7 +23702,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>392</v>
       </c>
@@ -23411,7 +23716,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>393</v>
       </c>
@@ -23422,7 +23727,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>394</v>
       </c>
@@ -23433,7 +23738,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>395</v>
       </c>
@@ -23441,13 +23746,13 @@
         <v>1213</v>
       </c>
       <c r="C399" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="H399" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>396</v>
       </c>
@@ -23458,7 +23763,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>397</v>
       </c>
@@ -23469,7 +23774,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>398</v>
       </c>
@@ -23483,7 +23788,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>399</v>
       </c>
@@ -23494,7 +23799,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>400</v>
       </c>
@@ -23505,7 +23810,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>401</v>
       </c>
@@ -23519,7 +23824,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>402</v>
       </c>
@@ -23530,7 +23835,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>403</v>
       </c>
@@ -23544,7 +23849,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>404</v>
       </c>
@@ -23558,7 +23863,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>405</v>
       </c>
@@ -23569,7 +23874,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>406</v>
       </c>
@@ -23580,7 +23885,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>407</v>
       </c>
@@ -23591,10 +23896,13 @@
         <v>2043</v>
       </c>
       <c r="I411" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2541</v>
+      </c>
+      <c r="J411" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>408</v>
       </c>
@@ -23605,7 +23913,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>409</v>
       </c>
@@ -23619,7 +23927,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>410</v>
       </c>
@@ -23630,7 +23938,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>411</v>
       </c>
@@ -23641,7 +23949,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>412</v>
       </c>
@@ -23655,7 +23963,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>413</v>
       </c>
@@ -23666,7 +23974,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>414</v>
       </c>
@@ -23677,7 +23985,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>415</v>
       </c>
@@ -23688,7 +23996,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>416</v>
       </c>
@@ -23705,7 +24013,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>417</v>
       </c>
@@ -23716,7 +24024,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>418</v>
       </c>
@@ -23727,10 +24035,13 @@
         <v>2054</v>
       </c>
       <c r="I422" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2592</v>
+      </c>
+      <c r="J422" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>419</v>
       </c>
@@ -23741,7 +24052,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>420</v>
       </c>
@@ -23752,7 +24063,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>421</v>
       </c>
@@ -23763,7 +24074,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>422</v>
       </c>
@@ -23774,7 +24085,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>423</v>
       </c>
@@ -23785,10 +24096,13 @@
         <v>2059</v>
       </c>
       <c r="I427" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2593</v>
+      </c>
+      <c r="J427" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>424</v>
       </c>
@@ -23799,7 +24113,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>425</v>
       </c>
@@ -23810,7 +24124,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>426</v>
       </c>
@@ -23821,7 +24135,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>427</v>
       </c>
@@ -23832,10 +24146,13 @@
         <v>2063</v>
       </c>
       <c r="I431" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2542</v>
+      </c>
+      <c r="J431" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>428</v>
       </c>
@@ -23849,7 +24166,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>429</v>
       </c>
@@ -23863,7 +24180,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>430</v>
       </c>
@@ -23874,7 +24191,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>431</v>
       </c>
@@ -23885,7 +24202,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>432</v>
       </c>
@@ -23896,7 +24213,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>433</v>
       </c>
@@ -23910,7 +24227,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>434</v>
       </c>
@@ -23921,7 +24238,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>435</v>
       </c>
@@ -23935,7 +24252,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>436</v>
       </c>
@@ -23946,7 +24263,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>437</v>
       </c>
@@ -23957,7 +24274,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>438</v>
       </c>
@@ -23968,7 +24285,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>439</v>
       </c>
@@ -23982,7 +24299,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>440</v>
       </c>
@@ -23993,7 +24310,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>441</v>
       </c>
@@ -24004,7 +24321,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>442</v>
       </c>
@@ -24015,10 +24332,13 @@
         <v>2078</v>
       </c>
       <c r="I446" t="s">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2645</v>
+      </c>
+      <c r="J446" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>443</v>
       </c>
@@ -24029,7 +24349,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>444</v>
       </c>
@@ -24145,7 +24465,7 @@
         <v>1271</v>
       </c>
       <c r="C457" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="H457" t="s">
         <v>2454</v>
@@ -24425,13 +24745,13 @@
         <v>1294</v>
       </c>
       <c r="C480" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="H480" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>477</v>
       </c>
@@ -24442,7 +24762,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>478</v>
       </c>
@@ -24453,7 +24773,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>479</v>
       </c>
@@ -24467,7 +24787,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>480</v>
       </c>
@@ -24478,7 +24798,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>481</v>
       </c>
@@ -24489,7 +24809,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>482</v>
       </c>
@@ -24500,7 +24820,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>483</v>
       </c>
@@ -24511,10 +24831,13 @@
         <v>2119</v>
       </c>
       <c r="I487" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2546</v>
+      </c>
+      <c r="J487" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>484</v>
       </c>
@@ -24525,7 +24848,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>485</v>
       </c>
@@ -24539,7 +24862,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>486</v>
       </c>
@@ -24553,7 +24876,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>487</v>
       </c>
@@ -24564,7 +24887,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>488</v>
       </c>
@@ -24578,7 +24901,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>489</v>
       </c>
@@ -24589,7 +24912,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>490</v>
       </c>
@@ -24600,7 +24923,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>491</v>
       </c>
@@ -24611,10 +24934,13 @@
         <v>2127</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2547</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>492</v>
       </c>
@@ -24625,7 +24951,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>493</v>
       </c>
@@ -24636,10 +24962,13 @@
         <v>2129</v>
       </c>
       <c r="I497" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2594</v>
+      </c>
+      <c r="J497" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>494</v>
       </c>
@@ -24650,7 +24979,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>495</v>
       </c>
@@ -24661,7 +24990,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>496</v>
       </c>
@@ -24672,7 +25001,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>497</v>
       </c>
@@ -24683,7 +25012,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>498</v>
       </c>
@@ -24694,10 +25023,13 @@
         <v>2134</v>
       </c>
       <c r="I502" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2545</v>
+      </c>
+      <c r="J502" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>499</v>
       </c>
@@ -24708,7 +25040,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>500</v>
       </c>
@@ -24719,7 +25051,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>501</v>
       </c>
@@ -24730,7 +25062,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>502</v>
       </c>
@@ -24741,7 +25073,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>503</v>
       </c>
@@ -24749,10 +25081,13 @@
         <v>1321</v>
       </c>
       <c r="C507" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2651</v>
+      </c>
+      <c r="H507" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>504</v>
       </c>
@@ -24769,7 +25104,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>505</v>
       </c>
@@ -24777,7 +25112,7 @@
         <v>1323</v>
       </c>
       <c r="C509" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D509" t="s">
         <v>2455</v>
@@ -24786,7 +25121,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>506</v>
       </c>
@@ -24800,7 +25135,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>507</v>
       </c>
@@ -24811,7 +25146,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>508</v>
       </c>
@@ -24822,7 +25157,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>509</v>
       </c>
@@ -24836,7 +25171,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>510</v>
       </c>
@@ -24847,7 +25182,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>511</v>
       </c>
@@ -24858,7 +25193,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>512</v>
       </c>
@@ -24869,7 +25204,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>513</v>
       </c>
@@ -24880,7 +25215,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>514</v>
       </c>
@@ -24888,13 +25223,16 @@
         <v>1332</v>
       </c>
       <c r="C518" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I518" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="I518" s="1" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J518" s="1" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>515</v>
       </c>
@@ -24905,7 +25243,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>516</v>
       </c>
@@ -24919,7 +25257,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>517</v>
       </c>
@@ -24930,7 +25268,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>518</v>
       </c>
@@ -24941,7 +25279,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>519</v>
       </c>
@@ -24952,7 +25290,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>520</v>
       </c>
@@ -24960,13 +25298,13 @@
         <v>1338</v>
       </c>
       <c r="C524" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="H524" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>521</v>
       </c>
@@ -24977,7 +25315,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>522</v>
       </c>
@@ -24991,7 +25329,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>523</v>
       </c>
@@ -25002,7 +25340,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>524</v>
       </c>
@@ -25013,7 +25351,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>525</v>
       </c>
@@ -25027,7 +25365,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>526</v>
       </c>
@@ -25038,7 +25376,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>527</v>
       </c>
@@ -25049,7 +25387,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>528</v>
       </c>
@@ -25063,7 +25401,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>529</v>
       </c>
@@ -25074,7 +25412,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>530</v>
       </c>
@@ -25085,7 +25423,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>531</v>
       </c>
@@ -25099,10 +25437,13 @@
         <v>2456</v>
       </c>
       <c r="I535" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2600</v>
+      </c>
+      <c r="J535" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>532</v>
       </c>
@@ -25113,7 +25454,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>533</v>
       </c>
@@ -25124,7 +25465,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>534</v>
       </c>
@@ -25138,7 +25479,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>535</v>
       </c>
@@ -25149,7 +25490,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>536</v>
       </c>
@@ -25160,7 +25501,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>537</v>
       </c>
@@ -25171,7 +25512,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>538</v>
       </c>
@@ -25179,13 +25520,13 @@
         <v>1356</v>
       </c>
       <c r="C542" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="H542" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>539</v>
       </c>
@@ -25196,7 +25537,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>540</v>
       </c>
@@ -25210,7 +25551,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>541</v>
       </c>
@@ -25220,11 +25561,14 @@
       <c r="C545" t="s">
         <v>2177</v>
       </c>
-      <c r="H545" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I545" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>542</v>
       </c>
@@ -25235,7 +25579,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>543</v>
       </c>
@@ -25243,13 +25587,13 @@
         <v>1361</v>
       </c>
       <c r="C547" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="H547" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>544</v>
       </c>
@@ -25260,7 +25604,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>545</v>
       </c>
@@ -25271,7 +25615,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>546</v>
       </c>
@@ -25285,7 +25629,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>547</v>
       </c>
@@ -25299,7 +25643,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>548</v>
       </c>
@@ -25313,7 +25657,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>549</v>
       </c>
@@ -25324,7 +25668,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>550</v>
       </c>
@@ -25335,7 +25679,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>551</v>
       </c>
@@ -25346,7 +25690,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>552</v>
       </c>
@@ -25359,8 +25703,11 @@
       <c r="H556" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J556" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>553</v>
       </c>
@@ -25371,7 +25718,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>554</v>
       </c>
@@ -25385,7 +25732,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>555</v>
       </c>
@@ -25396,7 +25743,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>556</v>
       </c>
@@ -25407,7 +25754,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>557</v>
       </c>
@@ -25421,13 +25768,16 @@
         <v>2479</v>
       </c>
       <c r="I561" t="s">
-        <v>2608</v>
+        <v>2601</v>
       </c>
       <c r="J561" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2601</v>
+      </c>
+      <c r="K561" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>558</v>
       </c>
@@ -25443,11 +25793,14 @@
       <c r="F562" t="s">
         <v>2493</v>
       </c>
-      <c r="H562" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I562" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J562" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>559</v>
       </c>
@@ -25464,7 +25817,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>560</v>
       </c>
@@ -25472,16 +25825,19 @@
         <v>1378</v>
       </c>
       <c r="C564" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D564" t="s">
         <v>2454</v>
       </c>
       <c r="I564" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2655</v>
+      </c>
+      <c r="J564" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>561</v>
       </c>
@@ -25495,7 +25851,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>562</v>
       </c>
@@ -25506,7 +25862,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>563</v>
       </c>
@@ -25517,7 +25873,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>564</v>
       </c>
@@ -25531,7 +25887,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>565</v>
       </c>
@@ -25542,7 +25898,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>566</v>
       </c>
@@ -25553,7 +25909,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>567</v>
       </c>
@@ -25567,7 +25923,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>568</v>
       </c>
@@ -25578,7 +25934,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>569</v>
       </c>
@@ -25589,7 +25945,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>570</v>
       </c>
@@ -25600,7 +25956,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>571</v>
       </c>
@@ -25614,13 +25970,16 @@
         <v>2455</v>
       </c>
       <c r="F575" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="H575" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J575" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>572</v>
       </c>
@@ -25631,7 +25990,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>573</v>
       </c>
@@ -25642,7 +26001,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>574</v>
       </c>
@@ -25650,13 +26009,13 @@
         <v>1392</v>
       </c>
       <c r="C578" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="H578" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>575</v>
       </c>
@@ -25667,7 +26026,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>576</v>
       </c>
@@ -25681,7 +26040,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>577</v>
       </c>
@@ -25692,7 +26051,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>578</v>
       </c>
@@ -25703,7 +26062,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>579</v>
       </c>
@@ -25717,7 +26076,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>580</v>
       </c>
@@ -25737,7 +26096,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>581</v>
       </c>
@@ -25748,10 +26107,13 @@
         <v>2454</v>
       </c>
       <c r="I585" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2602</v>
+      </c>
+      <c r="J585" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>582</v>
       </c>
@@ -25762,7 +26124,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>583</v>
       </c>
@@ -25776,7 +26138,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>584</v>
       </c>
@@ -25787,7 +26149,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>585</v>
       </c>
@@ -25798,7 +26160,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>586</v>
       </c>
@@ -25815,7 +26177,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>587</v>
       </c>
@@ -25829,10 +26191,13 @@
         <v>2482</v>
       </c>
       <c r="I591" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2559</v>
+      </c>
+      <c r="J591" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>588</v>
       </c>
@@ -25849,7 +26214,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>589</v>
       </c>
@@ -25860,7 +26225,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>590</v>
       </c>
@@ -25871,13 +26236,13 @@
         <v>2226</v>
       </c>
       <c r="F594" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="H594" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>591</v>
       </c>
@@ -25888,7 +26253,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>592</v>
       </c>
@@ -25899,7 +26264,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>593</v>
       </c>
@@ -25907,13 +26272,13 @@
         <v>1411</v>
       </c>
       <c r="C597" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="H597" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>594</v>
       </c>
@@ -25924,7 +26289,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>595</v>
       </c>
@@ -25935,7 +26300,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>596</v>
       </c>
@@ -25946,7 +26311,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>597</v>
       </c>
@@ -25954,13 +26319,13 @@
         <v>1415</v>
       </c>
       <c r="C601" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="H601" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>598</v>
       </c>
@@ -25971,7 +26336,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>599</v>
       </c>
@@ -25982,7 +26347,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>600</v>
       </c>
@@ -25996,7 +26361,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>601</v>
       </c>
@@ -26010,7 +26375,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>602</v>
       </c>
@@ -26021,10 +26386,13 @@
         <v>2238</v>
       </c>
       <c r="I606" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2605</v>
+      </c>
+      <c r="J606" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>603</v>
       </c>
@@ -26035,7 +26403,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>604</v>
       </c>
@@ -26049,7 +26417,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>605</v>
       </c>
@@ -26060,7 +26428,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>606</v>
       </c>
@@ -26071,7 +26439,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>607</v>
       </c>
@@ -26085,7 +26453,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>608</v>
       </c>
@@ -26096,7 +26464,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>609</v>
       </c>
@@ -26110,7 +26478,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>610</v>
       </c>
@@ -26121,7 +26489,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>611</v>
       </c>
@@ -26132,7 +26500,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>612</v>
       </c>
@@ -26140,13 +26508,16 @@
         <v>1430</v>
       </c>
       <c r="C616" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="H616" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J616" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>613</v>
       </c>
@@ -26157,7 +26528,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>614</v>
       </c>
@@ -26168,7 +26539,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>615</v>
       </c>
@@ -26188,7 +26559,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>616</v>
       </c>
@@ -26202,7 +26573,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>617</v>
       </c>
@@ -26213,7 +26584,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>618</v>
       </c>
@@ -26224,7 +26595,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>619</v>
       </c>
@@ -26238,7 +26609,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>620</v>
       </c>
@@ -26255,7 +26626,10 @@
         <v>2455</v>
       </c>
       <c r="I624" t="s">
-        <v>2612</v>
+        <v>2603</v>
+      </c>
+      <c r="J624" t="s">
+        <v>2664</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
@@ -26266,7 +26640,7 @@
         <v>1439</v>
       </c>
       <c r="C625" t="s">
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="D625" t="s">
         <v>2454</v>
@@ -26294,7 +26668,7 @@
         <v>1441</v>
       </c>
       <c r="C627" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="H627" t="s">
         <v>2454</v>
@@ -26461,7 +26835,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>637</v>
       </c>
@@ -26475,7 +26849,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>638</v>
       </c>
@@ -26486,7 +26860,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>639</v>
       </c>
@@ -26497,7 +26871,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>640</v>
       </c>
@@ -26511,7 +26885,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>641</v>
       </c>
@@ -26522,7 +26896,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>642</v>
       </c>
@@ -26533,7 +26907,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>643</v>
       </c>
@@ -26544,7 +26918,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>644</v>
       </c>
@@ -26552,16 +26926,16 @@
         <v>1462</v>
       </c>
       <c r="C648" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="H648" t="s">
         <v>2454</v>
       </c>
-      <c r="J648" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K648" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>645</v>
       </c>
@@ -26572,7 +26946,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>646</v>
       </c>
@@ -26583,7 +26957,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>647</v>
       </c>
@@ -26591,13 +26965,13 @@
         <v>1465</v>
       </c>
       <c r="C651" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="H651" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>648</v>
       </c>
@@ -26608,7 +26982,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>649</v>
       </c>
@@ -26619,7 +26993,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>650</v>
       </c>
@@ -26627,13 +27001,13 @@
         <v>1468</v>
       </c>
       <c r="C654" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="H654" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>651</v>
       </c>
@@ -26647,7 +27021,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>652</v>
       </c>
@@ -26658,7 +27032,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>653</v>
       </c>
@@ -26672,7 +27046,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>654</v>
       </c>
@@ -26683,7 +27057,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>655</v>
       </c>
@@ -26694,7 +27068,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>656</v>
       </c>
@@ -26708,7 +27082,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>657</v>
       </c>
@@ -26719,7 +27093,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>658</v>
       </c>
@@ -26730,7 +27104,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>659</v>
       </c>
@@ -26738,7 +27112,7 @@
         <v>1477</v>
       </c>
       <c r="C663" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="E663" t="s">
         <v>2487</v>
@@ -26749,8 +27123,11 @@
       <c r="H663" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J663" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>660</v>
       </c>
@@ -26761,7 +27138,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>661</v>
       </c>
@@ -26775,7 +27152,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>662</v>
       </c>
@@ -26786,7 +27163,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>663</v>
       </c>
@@ -26794,7 +27171,7 @@
         <v>1481</v>
       </c>
       <c r="C667" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D667" t="s">
         <v>2455</v>
@@ -26806,7 +27183,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>664</v>
       </c>
@@ -26817,7 +27194,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>665</v>
       </c>
@@ -26828,7 +27205,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>666</v>
       </c>
@@ -26842,7 +27219,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>667</v>
       </c>
@@ -26853,7 +27230,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>668</v>
       </c>
@@ -26864,7 +27241,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>669</v>
       </c>
@@ -26875,7 +27252,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>670</v>
       </c>
@@ -26886,10 +27263,13 @@
         <v>2306</v>
       </c>
       <c r="I674" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2569</v>
+      </c>
+      <c r="J674" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>671</v>
       </c>
@@ -26900,7 +27280,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>672</v>
       </c>
@@ -26911,7 +27291,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>673</v>
       </c>
@@ -26922,7 +27302,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>674</v>
       </c>
@@ -26936,7 +27316,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>675</v>
       </c>
@@ -26947,7 +27327,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>676</v>
       </c>
@@ -26958,10 +27338,13 @@
         <v>2312</v>
       </c>
       <c r="I680" s="1" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2572</v>
+      </c>
+      <c r="J680" s="1" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>677</v>
       </c>
@@ -26972,7 +27355,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>678</v>
       </c>
@@ -26983,7 +27366,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>679</v>
       </c>
@@ -26994,7 +27377,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>680</v>
       </c>
@@ -27002,13 +27385,13 @@
         <v>1498</v>
       </c>
       <c r="C684" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="H684" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>681</v>
       </c>
@@ -27019,7 +27402,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>682</v>
       </c>
@@ -27030,7 +27413,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>683</v>
       </c>
@@ -27038,13 +27421,13 @@
         <v>1501</v>
       </c>
       <c r="C687" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="H687" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>684</v>
       </c>
@@ -27055,7 +27438,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>685</v>
       </c>
@@ -27069,7 +27452,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>686</v>
       </c>
@@ -27080,7 +27463,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>687</v>
       </c>
@@ -27091,7 +27474,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>688</v>
       </c>
@@ -27102,7 +27485,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>689</v>
       </c>
@@ -27110,13 +27493,16 @@
         <v>1507</v>
       </c>
       <c r="C693" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="I693" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2595</v>
+      </c>
+      <c r="J693" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>690</v>
       </c>
@@ -27127,7 +27513,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>691</v>
       </c>
@@ -27138,7 +27524,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>692</v>
       </c>
@@ -27146,13 +27532,13 @@
         <v>1510</v>
       </c>
       <c r="C696" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="H696" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>693</v>
       </c>
@@ -27163,7 +27549,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>694</v>
       </c>
@@ -27174,7 +27560,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>695</v>
       </c>
@@ -27185,7 +27571,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>696</v>
       </c>
@@ -27202,7 +27588,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>697</v>
       </c>
@@ -27213,7 +27599,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>698</v>
       </c>
@@ -27224,7 +27610,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>699</v>
       </c>
@@ -27235,7 +27621,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>700</v>
       </c>
@@ -27243,13 +27629,13 @@
         <v>1518</v>
       </c>
       <c r="C704" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="H704" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>701</v>
       </c>
@@ -27260,7 +27646,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>702</v>
       </c>
@@ -27274,7 +27660,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>703</v>
       </c>
@@ -27288,7 +27674,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>704</v>
       </c>
@@ -27302,10 +27688,13 @@
         <v>2459</v>
       </c>
       <c r="I708" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2606</v>
+      </c>
+      <c r="J708" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>705</v>
       </c>
@@ -27319,7 +27708,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>706</v>
       </c>
@@ -27330,7 +27719,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>707</v>
       </c>
@@ -27341,7 +27730,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>708</v>
       </c>
@@ -27352,7 +27741,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>709</v>
       </c>
@@ -27360,13 +27749,13 @@
         <v>1527</v>
       </c>
       <c r="C713" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="H713" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>710</v>
       </c>
@@ -27377,7 +27766,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>711</v>
       </c>
@@ -27391,7 +27780,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>712</v>
       </c>
@@ -27405,7 +27794,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>713</v>
       </c>
@@ -27416,7 +27805,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>714</v>
       </c>
@@ -27427,7 +27816,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>715</v>
       </c>
@@ -27438,7 +27827,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>716</v>
       </c>
@@ -27449,10 +27838,13 @@
         <v>2352</v>
       </c>
       <c r="I720" s="2" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2612</v>
+      </c>
+      <c r="J720" s="3" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>717</v>
       </c>
@@ -27460,7 +27852,7 @@
         <v>1535</v>
       </c>
       <c r="C721" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="D721" t="s">
         <v>2454</v>
@@ -27469,7 +27861,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>718</v>
       </c>
@@ -27480,7 +27872,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>719</v>
       </c>
@@ -27494,7 +27886,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>720</v>
       </c>
@@ -27504,11 +27896,14 @@
       <c r="C724" t="s">
         <v>2356</v>
       </c>
-      <c r="H724" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I724" t="s">
+        <v>2682</v>
+      </c>
+      <c r="J724" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>721</v>
       </c>
@@ -27519,7 +27914,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>722</v>
       </c>
@@ -27530,7 +27925,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>723</v>
       </c>
@@ -27544,7 +27939,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>724</v>
       </c>
@@ -27555,7 +27950,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>725</v>
       </c>
@@ -27569,7 +27964,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>726</v>
       </c>
@@ -27580,7 +27975,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>727</v>
       </c>
@@ -27591,7 +27986,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>728</v>
       </c>
@@ -27602,7 +27997,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>729</v>
       </c>
@@ -27610,13 +28005,13 @@
         <v>1547</v>
       </c>
       <c r="C733" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="H733" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>730</v>
       </c>
@@ -27624,13 +28019,13 @@
         <v>1548</v>
       </c>
       <c r="C734" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="H734" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>731</v>
       </c>
@@ -27644,7 +28039,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>732</v>
       </c>
@@ -28007,7 +28402,10 @@
         <v>1579</v>
       </c>
       <c r="C765" t="s">
-        <v>2579</v>
+        <v>2578</v>
+      </c>
+      <c r="H765" t="s">
+        <v>2454</v>
       </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.25">
@@ -28240,7 +28638,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>781</v>
       </c>
@@ -28251,7 +28649,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>782</v>
       </c>
@@ -28262,7 +28660,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>783</v>
       </c>
@@ -28270,13 +28668,16 @@
         <v>1601</v>
       </c>
       <c r="C787" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="H787" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J787" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>784</v>
       </c>
@@ -28287,7 +28688,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>785</v>
       </c>
@@ -28301,7 +28702,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>786</v>
       </c>
@@ -28312,7 +28713,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>787</v>
       </c>
@@ -28323,7 +28724,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>788</v>
       </c>
@@ -28337,7 +28738,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>789</v>
       </c>
@@ -28348,7 +28749,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>790</v>
       </c>
@@ -28359,7 +28760,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>791</v>
       </c>
@@ -28373,7 +28774,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>792</v>
       </c>
@@ -28384,7 +28785,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>793</v>
       </c>
@@ -28395,7 +28796,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>794</v>
       </c>
@@ -28409,7 +28810,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>795</v>
       </c>
@@ -28420,7 +28821,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>796</v>
       </c>
@@ -28431,7 +28832,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>797</v>
       </c>
@@ -28445,7 +28846,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>798</v>
       </c>
@@ -28456,7 +28857,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>799</v>
       </c>
@@ -28467,7 +28868,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>800</v>
       </c>
@@ -28478,7 +28879,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>801</v>
       </c>
@@ -28486,13 +28887,16 @@
         <v>1619</v>
       </c>
       <c r="C805" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="H805" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J805" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>802</v>
       </c>
@@ -28503,7 +28907,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>803</v>
       </c>
@@ -28517,7 +28921,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>804</v>
       </c>
@@ -28528,7 +28932,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>805</v>
       </c>
@@ -28539,7 +28943,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>806</v>
       </c>
@@ -28553,7 +28957,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>807</v>
       </c>
@@ -28564,7 +28968,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>808</v>
       </c>
@@ -28575,7 +28979,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>809</v>
       </c>
@@ -28589,7 +28993,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>810</v>
       </c>
@@ -28600,7 +29004,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>811</v>
       </c>
@@ -28611,7 +29015,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>812</v>
       </c>
@@ -28622,7 +29026,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>813</v>
       </c>
@@ -28632,8 +29036,14 @@
       <c r="C817" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H817" t="s">
+        <v>2454</v>
+      </c>
+      <c r="J817" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>814</v>
       </c>
@@ -28641,7 +29051,7 @@
         <v>1632</v>
       </c>
       <c r="C818" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="D818" t="s">
         <v>2454</v>
@@ -28650,7 +29060,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>815</v>
       </c>
@@ -28661,10 +29071,13 @@
         <v>2451</v>
       </c>
       <c r="I819" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2596</v>
+      </c>
+      <c r="J819" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>816</v>
       </c>
@@ -28675,7 +29088,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>817</v>
       </c>
@@ -28692,8 +29105,14 @@
     <hyperlink ref="I495" r:id="rId1" xr:uid="{87E01737-ED89-4326-88E9-BFDFFDB177CE}"/>
     <hyperlink ref="I518" r:id="rId2" xr:uid="{247DCD45-3C1B-4E01-B1F2-04702D7BF530}"/>
     <hyperlink ref="I680" r:id="rId3" xr:uid="{78B92816-9AFC-4E3F-810C-0849359CBA5E}"/>
+    <hyperlink ref="J495" r:id="rId4" xr:uid="{367D40F9-06A2-4CCC-861E-15A44748D86E}"/>
+    <hyperlink ref="J518" r:id="rId5" xr:uid="{4F109F99-226B-4958-B4EB-6368274218C9}"/>
+    <hyperlink ref="J680" r:id="rId6" xr:uid="{0FE8714B-A2EC-4376-83A7-8935AFFB8984}"/>
+    <hyperlink ref="J720" r:id="rId7" xr:uid="{AE8BE159-684A-44DF-A0BC-60C9D0DE20C2}"/>
+    <hyperlink ref="I545" r:id="rId8" xr:uid="{6CC1BDD7-DC92-4A64-BBE9-B3A504D5B487}"/>
+    <hyperlink ref="J545" r:id="rId9" xr:uid="{75898D0F-AF11-4952-890F-A2264640FE3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>